--- a/3.Semester/Datenanalyse/Kaufverhalten auf beschäftigung_12231-9010_de.xlsx
+++ b/3.Semester/Datenanalyse/Kaufverhalten auf beschäftigung_12231-9010_de.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Studium\3.Semester\Datenanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFAB0C44-ED3C-4B5B-A5A3-842D2F48B276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F161967-90F9-4599-8981-21FACA6E4EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{ACAC58EE-D8F5-40D4-8AED-55CB7E147FA2}"/>
   </bookViews>
@@ -16,10 +16,23 @@
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
     <sheet name="12231-9010_de" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -621,13 +634,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -12238,19 +12250,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -12283,7 +12283,6 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -12307,19 +12306,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -12352,7 +12339,6 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -12376,19 +12362,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -12421,7 +12395,6 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -12445,23 +12418,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -12494,7 +12451,6 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -12518,23 +12474,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -12567,7 +12507,6 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -12619,19 +12558,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -12663,7 +12590,6 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -12829,19 +12755,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -12873,7 +12787,6 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -13039,19 +12952,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -13083,7 +12984,6 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -13251,23 +13151,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -13299,7 +13183,6 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -13467,23 +13350,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -13515,7 +13382,6 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -13658,15 +13524,13 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="33551327"/>
         <c:axId val="33552287"/>
@@ -13788,16 +13652,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.87349104046087256"/>
-          <c:y val="0.31278268787830094"/>
-          <c:w val="0.12566526487129773"/>
-          <c:h val="0.42382112950166945"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13925,7 +13779,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14033,11 +13887,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -14048,11 +13897,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -14084,9 +13928,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14142,22 +13983,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -14262,8 +14104,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14395,19 +14237,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14444,16 +14287,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1288598</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83004</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1456686</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2701637</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>159204</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4483373</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>159205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15600,7 +15443,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67C6EE57-A214-4436-BA7F-8F72BEA8E977}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67C6EE57-A214-4436-BA7F-8F72BEA8E977}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:F19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -16325,7 +16168,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16681,19 +16524,19 @@
       <c r="A4" s="2">
         <v>2006</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>6.7333333333333334</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>15.133333333333333</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>48.199999999999996</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>70</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>30</v>
       </c>
     </row>
@@ -16701,19 +16544,19 @@
       <c r="A5" s="2">
         <v>2007</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>9.0333333333333332</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>14.299999999999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>46.733333333333327</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>70.033333333333331</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>29.966666666666669</v>
       </c>
     </row>
@@ -16721,19 +16564,19 @@
       <c r="A6" s="2">
         <v>2008</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>10.266666666666666</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>12.9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>47</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>70.166666666666671</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>29.833333333333332</v>
       </c>
     </row>
@@ -16741,19 +16584,19 @@
       <c r="A7" s="2">
         <v>2009</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>14.25</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>51.75</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>74</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>26</v>
       </c>
     </row>
@@ -16761,19 +16604,19 @@
       <c r="A8" s="2">
         <v>2010</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>14.25</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>54.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>77.75</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>22.25</v>
       </c>
     </row>
@@ -16781,19 +16624,19 @@
       <c r="A9" s="2">
         <v>2011</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>8.75</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>13.25</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>57.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>79.5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>20.5</v>
       </c>
     </row>
@@ -16801,19 +16644,19 @@
       <c r="A10" s="2">
         <v>2012</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>12.25</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>59.25</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>79.25</v>
       </c>
-      <c r="F10" s="3" t="e">
+      <c r="F10" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16821,19 +16664,19 @@
       <c r="A11" s="2">
         <v>2013</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>8.5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>62</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>81.25</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>18.75</v>
       </c>
     </row>
@@ -16841,19 +16684,19 @@
       <c r="A12" s="2">
         <v>2014</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>8.5</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>11.75</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>61</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>81</v>
       </c>
-      <c r="F12" s="3" t="e">
+      <c r="F12" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16861,19 +16704,19 @@
       <c r="A13" s="2">
         <v>2015</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>6.75</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>11.75</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>63.75</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>82.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>17.75</v>
       </c>
     </row>
@@ -16881,19 +16724,19 @@
       <c r="A14" s="2">
         <v>2016</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>6.75</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>12.5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>62.75</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>81.5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>18.5</v>
       </c>
     </row>
@@ -16901,19 +16744,19 @@
       <c r="A15" s="2">
         <v>2017</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>6.15</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>10.725</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>63.625</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>80.5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>19.5</v>
       </c>
     </row>
@@ -16921,19 +16764,19 @@
       <c r="A16" s="2">
         <v>2018</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>6.6999999999999993</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>11.275</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>63.825000000000003</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>81.799999999999983</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>18.199999999999996</v>
       </c>
     </row>
@@ -16941,19 +16784,19 @@
       <c r="A17" s="2">
         <v>2019</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>5.75</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>10.575000000000001</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>66.775000000000006</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>82.6</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>17.399999999999999</v>
       </c>
     </row>
@@ -16961,19 +16804,19 @@
       <c r="A18" s="2">
         <v>2020</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>10.199999999999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>68.75</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>85.05</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>14.950000000000001</v>
       </c>
     </row>
@@ -16981,19 +16824,19 @@
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>7.7592592592592595</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>12.317543859649124</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>59.082456140350864</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>78.901754385964907</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>21.318367346938778</v>
       </c>
     </row>
